--- a/corona-cultural/Cultural_Model_7Jun2020.xlsx
+++ b/corona-cultural/Cultural_Model_7Jun2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9495" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9495" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Factors" sheetId="1" r:id="rId1"/>
@@ -25398,8 +25398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31385,8 +31385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37372,8 +37372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -38033,8 +38033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -43359,8 +43359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -61997,7 +61997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
